--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-007 - Query Family Tree - Jadwal Flagging.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-007 - Query Family Tree - Jadwal Flagging.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAC0492-1DAC-4073-8723-1BF4C97235BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7BB330-62FF-42A5-A728-AA9FC02403F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0277" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0017" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>RUN</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Update Data Family Tree Menjadi Deleted</t>
+  </si>
+  <si>
+    <t>SCD0017-007</t>
   </si>
 </sst>
 </file>
@@ -609,14 +612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
